--- a/react-spfx/data.xlsx
+++ b/react-spfx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrdav\projects\me\sharepoint\mainejsspfx\react-spfx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA018B2-3832-4A02-9AB1-EDAF72819B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA04822-F2C4-4428-9359-8024AF3A4229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>ItemCost</t>
   </si>
   <si>
-    <t>ReturnsID</t>
-  </si>
-  <si>
     <t>RET15412 1541 1522</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>StockUnit</t>
+  </si>
+  <si>
+    <t>ReturnsId</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
     <tableColumn id="4" xr3:uid="{586D04B1-C6A6-4F8E-ACA6-33F42FD747EA}" name="ReturnsLocation"/>
     <tableColumn id="5" xr3:uid="{F27C5C07-1D7B-4448-814F-BE63549BEC2B}" name="Price"/>
     <tableColumn id="6" xr3:uid="{E311C9AA-909B-48F7-A8EA-24CDCA138597}" name="ItemCost"/>
-    <tableColumn id="10" xr3:uid="{43160758-6EBC-4292-A128-8B75B87777CD}" name="ReturnsID"/>
+    <tableColumn id="10" xr3:uid="{43160758-6EBC-4292-A128-8B75B87777CD}" name="ReturnsId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,19 +1007,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,13 +1039,13 @@
         <v>4501255514</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -1065,13 +1065,13 @@
         <v>4501255515</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -1091,13 +1091,13 @@
         <v>4501255516</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>15.52</v>
@@ -1117,13 +1117,13 @@
         <v>4501255517</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>39.99</v>
@@ -1143,13 +1143,13 @@
         <v>4501255518</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>99.99</v>
@@ -1169,13 +1169,13 @@
         <v>4501255519</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>49.95</v>
@@ -1195,13 +1195,13 @@
         <v>4501255520</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>150</v>
@@ -1221,13 +1221,13 @@
         <v>4501255521</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>4.99</v>
@@ -1247,13 +1247,13 @@
         <v>4501255522</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>45.95</v>
@@ -1273,13 +1273,13 @@
         <v>4501255523</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>10.15</v>
@@ -1299,13 +1299,13 @@
         <v>4501255524</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>49.99</v>
@@ -1325,13 +1325,13 @@
         <v>4501255525</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1351,13 +1351,13 @@
         <v>4501255526</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>59.99</v>
